--- a/notebooks/MED23/input/MED23_MRT18_individuals.xlsx
+++ b/notebooks/MED23/input/MED23_MRT18_individuals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/MED23/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D162C64-E9C0-A444-892C-1EFC97EDFE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6D5038-35B7-6241-9F41-73892E4CDBCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-420" yWindow="5620" windowWidth="31480" windowHeight="9620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="5620" windowWidth="31480" windowHeight="9620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
